--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/commander/commander-uncommon.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/commander/commander-uncommon.xlsx
@@ -327,40 +327,50 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 2/2
-Border: black
-Finish: normal</t>
+          <t xml:space="preserve">Border: black
+Finish: normal
+Keywords:
+➤ Fuse</t>
         </r>
       </text>
     </comment>
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">{G}{U}: This turn, each creature you control enters with an additional +1/+1 counter on it.
-{G}{U}, Remove a +1/+1 counter from a creature you control: Draw a card.</t>
+          <t xml:space="preserve">Create a 3/3 green Centaur creature token.
+Fuse (You may cast one or both halves of this card from your hand.)
+//
+You gain 2 life for each creature you control.
+Fuse (You may cast one or both halves of this card from your hand.)</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 green
-➤ 1 blue</t>
+          <t xml:space="preserve">➤ 3 generic
+➤ 1 green
+//
+➤ 1 white</t>
         </r>
       </text>
     </comment>
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
+          <t xml:space="preserve">Loyalty: 5
+Border: black
+Finish: normal
+Keywords:
+➤ Mill</t>
         </r>
       </text>
     </comment>
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t>Whenever a creature you control with a +1/+1 counter on it deals combat damage to a player, you may draw a card.</t>
+          <t xml:space="preserve">Spells and abilities your opponents control can't cause their controller to search their library.
+−1: Target player mills four cards. Then exile each opponent's graveyard.</t>
         </r>
       </text>
     </comment>
@@ -368,8 +378,7 @@
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
-➤ 1 green
-➤ 1 blue</t>
+➤ 2× blue or black</t>
         </r>
       </text>
     </comment>
@@ -384,16 +393,16 @@
     <comment ref="E5" authorId="0">
       <text>
         <r>
-          <t>Whenever a creature you control dies, you gain 1 life and draw a card.</t>
+          <t>Whenever a creature you control with a +1/+1 counter on it deals combat damage to a player, you may draw a card.</t>
         </r>
       </text>
     </comment>
     <comment ref="I5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 3 generic
-➤ 1 black
-➤ 1 green</t>
+          <t xml:space="preserve">➤ 1 generic
+➤ 1 green
+➤ 1 blue</t>
         </r>
       </text>
     </comment>
@@ -425,58 +434,49 @@
     <comment ref="D7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Loyalty: 5
-Border: black
-Finish: normal
-Keywords:
-➤ Mill</t>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
         </r>
       </text>
     </comment>
     <comment ref="E7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Spells and abilities your opponents control can't cause their controller to search their library.
-−1: Target player mills four cards. Then exile each opponent's graveyard.</t>
+          <t>Whenever a creature you control dies, you gain 1 life and draw a card.</t>
         </r>
       </text>
     </comment>
     <comment ref="I7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
-➤ 2× blue or black</t>
+          <t xml:space="preserve">➤ 3 generic
+➤ 1 black
+➤ 1 green</t>
         </r>
       </text>
     </comment>
     <comment ref="D8" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
-Finish: normal
-Keywords:
-➤ Fuse</t>
+          <t xml:space="preserve">P/T: 2/2
+Border: black
+Finish: normal</t>
         </r>
       </text>
     </comment>
     <comment ref="E8" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Create a 3/3 green Centaur creature token.
-Fuse (You may cast one or both halves of this card from your hand.)
-//
-You gain 2 life for each creature you control.
-Fuse (You may cast one or both halves of this card from your hand.)</t>
+          <t xml:space="preserve">{G}{U}: This turn, each creature you control enters with an additional +1/+1 counter on it.
+{G}{U}, Remove a +1/+1 counter from a creature you control: Draw a card.</t>
         </r>
       </text>
     </comment>
     <comment ref="I8" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 3 generic
-➤ 1 green
-//
-➤ 1 white</t>
+          <t xml:space="preserve">➤ 1 green
+➤ 1 blue</t>
         </r>
       </text>
     </comment>
@@ -832,31 +832,55 @@
     <t>Commander (Uncommon) - Multicolor</t>
   </si>
   <si>
-    <t>Zameck Guildmage</t>
+    <t>Alive // Well</t>
   </si>
   <si>
-    <t>Creature — Elf Wizard</t>
+    <t>Sorcery // Sorcery</t>
   </si>
   <si>
-    <t>gtc</t>
+    <t>dgm</t>
   </si>
   <si>
-    <t>Gatecrash</t>
+    <t>Dragon's Maze</t>
   </si>
   <si>
-    <t>209</t>
+    <t>121</t>
   </si>
   <si>
-    <t>{G}{U}</t>
+    <t>{3}{G} // {W}</t>
   </si>
   <si>
-    <t>G, U</t>
+    <t>G, W</t>
   </si>
   <si>
-    <t>0.15</t>
+    <t>0.05</t>
   </si>
   <si>
-    <t>Open Zameck Guildmage</t>
+    <t>Open Alive // Well</t>
+  </si>
+  <si>
+    <t>Ashiok, Dream Render</t>
+  </si>
+  <si>
+    <t>Planeswalker - Legendary</t>
+  </si>
+  <si>
+    <t>Legendary Planeswalker — Ashiok</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>{1}{U/B}{U/B}</t>
+  </si>
+  <si>
+    <t>B, U</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>Open Ashiok, Dream Render</t>
   </si>
   <si>
     <t>Bred for the Hunt</t>
@@ -874,10 +898,37 @@
     <t>{1}{G}{U}</t>
   </si>
   <si>
+    <t>G, U</t>
+  </si>
+  <si>
     <t>0.44</t>
   </si>
   <si>
     <t>Open Bred for the Hunt</t>
+  </si>
+  <si>
+    <t>Drown in the Loch</t>
+  </si>
+  <si>
+    <t>Instant</t>
+  </si>
+  <si>
+    <t>clb</t>
+  </si>
+  <si>
+    <t>Commander Legends: Battle for Baldur's Gate</t>
+  </si>
+  <si>
+    <t>842</t>
+  </si>
+  <si>
+    <t>{U}{B}</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>Open Drown in the Loch</t>
   </si>
   <si>
     <t>Moldervine Reclamation</t>
@@ -904,79 +955,28 @@
     <t>Open Moldervine Reclamation</t>
   </si>
   <si>
-    <t>Drown in the Loch</t>
+    <t>Zameck Guildmage</t>
   </si>
   <si>
-    <t>Instant</t>
+    <t>Creature — Elf Wizard</t>
   </si>
   <si>
-    <t>clb</t>
+    <t>gtc</t>
   </si>
   <si>
-    <t>Commander Legends: Battle for Baldur's Gate</t>
+    <t>Gatecrash</t>
   </si>
   <si>
-    <t>842</t>
+    <t>209</t>
   </si>
   <si>
-    <t>{U}{B}</t>
+    <t>{G}{U}</t>
   </si>
   <si>
-    <t>B, U</t>
+    <t>0.15</t>
   </si>
   <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>Open Drown in the Loch</t>
-  </si>
-  <si>
-    <t>Ashiok, Dream Render</t>
-  </si>
-  <si>
-    <t>Planeswalker - Legendary</t>
-  </si>
-  <si>
-    <t>Legendary Planeswalker — Ashiok</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>{1}{U/B}{U/B}</t>
-  </si>
-  <si>
-    <t>1.68</t>
-  </si>
-  <si>
-    <t>Open Ashiok, Dream Render</t>
-  </si>
-  <si>
-    <t>Alive // Well</t>
-  </si>
-  <si>
-    <t>Sorcery // Sorcery</t>
-  </si>
-  <si>
-    <t>dgm</t>
-  </si>
-  <si>
-    <t>Dragon's Maze</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>{3}{G} // {W}</t>
-  </si>
-  <si>
-    <t>G, W</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>Open Alive // Well</t>
+    <t>Open Zameck Guildmage</t>
   </si>
   <si>
     <t>Commander (Uncommon) - Artifact (Colorless)</t>
@@ -1066,7 +1066,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1113,39 +1113,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,22 +1154,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15236,7 +15196,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>91</v>
@@ -15254,7 +15214,7 @@
         <v>95</v>
       </c>
       <c r="J3" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>96</v>
@@ -15280,16 +15240,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>102</v>
@@ -15301,21 +15261,21 @@
         <v>3</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -15330,36 +15290,36 @@
         <v>17</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J5" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="15">
         <v>1</v>
@@ -15368,31 +15328,31 @@
         <v>16</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J6" s="15">
         <v>2</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>121</v>
@@ -15402,90 +15362,90 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="G7" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="17">
-        <v>3</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="M7" s="17" t="s">
+      <c r="J7" s="9">
+        <v>5</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="L7" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>129</v>
       </c>
+      <c r="N7" s="9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="19">
+      <c r="A8" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="J8" s="19">
-        <v>5</v>
-      </c>
-      <c r="K8" s="19" t="s">
+      <c r="I8" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="L8" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="M8" s="19" t="s">
+      <c r="J8" s="13">
+        <v>2</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="13" t="s">
         <v>138</v>
       </c>
     </row>
